--- a/data/templates/example_classification_input_user_bool.xlsx
+++ b/data/templates/example_classification_input_user_bool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpram\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laskar AI\captstone-project-laskarai-main\captstone-project-laskarai-main\klasifikasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD0A1FC-BA5B-4D92-BE09-CC8862E14A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1A73E-0738-4EE1-9E43-96FE68C9B2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>n_sikap_A</t>
+    <t>n_sikap_a</t>
   </si>
   <si>
     <t>n_kejuruan</t>
   </si>
   <si>
-    <t>mother_work_Lainnya</t>
+    <t>mother_work_lainnya</t>
   </si>
   <si>
     <t>n_mat</t>
@@ -43,10 +43,10 @@
     <t>n_bjawa</t>
   </si>
   <si>
-    <t>mother_salary_Sangat Rendah</t>
-  </si>
-  <si>
-    <t>father_salary_Tidak Berpenghasilan</t>
+    <t>mother_salary_sangat_rendah</t>
+  </si>
+  <si>
+    <t>father_salary_tidak_berpenghasilan</t>
   </si>
   <si>
     <t>n_bindo</t>
@@ -55,16 +55,16 @@
     <t>extracurricular_tidak</t>
   </si>
   <si>
-    <t>father_edu_SMP sederajat</t>
-  </si>
-  <si>
-    <t>father_work_Buruh</t>
-  </si>
-  <si>
-    <t>mother_salary_Cukup Rendah</t>
-  </si>
-  <si>
-    <t>mother_work_Buruh</t>
+    <t>father_edu_smp_sederajat</t>
+  </si>
+  <si>
+    <t>father_work_buruh</t>
+  </si>
+  <si>
+    <t>mother_salary_cukup_rendah</t>
+  </si>
+  <si>
+    <t>mother_work_buruh</t>
   </si>
 </sst>
 </file>
@@ -120,11 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,13 +487,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
+      <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.46153846153846168</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2">
@@ -504,39 +508,39 @@
       <c r="G2">
         <v>0.64285714285714235</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J2">
         <v>0.3888888888888884</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
+      <c r="K2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
+      <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.61538461538461497</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D3">
@@ -551,39 +555,39 @@
       <c r="G3">
         <v>0.71428571428571441</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J3">
         <v>0.77777777777777768</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
+      <c r="K3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="b">
+      <c r="A4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0.46153846153846168</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D4">
@@ -598,39 +602,39 @@
       <c r="G4">
         <v>0.71428571428571441</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J4">
         <v>0.22222222222222229</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
+      <c r="K4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="b">
+      <c r="A5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0.76923076923076916</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D5">
@@ -645,39 +649,39 @@
       <c r="G5">
         <v>0.57142857142857117</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0.77777777777777768</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
+      <c r="A6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0.46153846153846168</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D6">
@@ -692,39 +696,39 @@
       <c r="G6">
         <v>0.92857142857142883</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J6">
         <v>0.3888888888888884</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="b">
+      <c r="K6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="b">
+      <c r="A7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0.76923076923076916</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D7">
@@ -739,39 +743,39 @@
       <c r="G7">
         <v>0.5</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0.5</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
+      <c r="K7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="b">
+      <c r="A8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0.69230769230769251</v>
       </c>
-      <c r="C8" t="b">
+      <c r="C8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D8">
@@ -786,39 +790,39 @@
       <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="J8">
         <v>0.61111111111111072</v>
       </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="b">
+      <c r="K8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="b">
+      <c r="A9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0.69230769230769251</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D9">
@@ -833,39 +837,39 @@
       <c r="G9">
         <v>0.57142857142857117</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J9">
         <v>0.55555555555555536</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
+      <c r="K9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="b">
+      <c r="A10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B10">
         <v>0.53846153846153832</v>
       </c>
-      <c r="C10" t="b">
+      <c r="C10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D10">
@@ -880,39 +884,39 @@
       <c r="G10">
         <v>0.71428571428571441</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J10">
         <v>0.44444444444444459</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
+      <c r="K10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="b">
+      <c r="A11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="B11">
         <v>0.46153846153846168</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D11">
@@ -927,28 +931,28 @@
       <c r="G11">
         <v>0.71428571428571441</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J11">
         <v>0.27777777777777768</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
+      <c r="K11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
